--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\me\work\brainmu\webScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B2BDB-3E77-4A27-8D87-D04B19BFFEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABAB126-C210-4DC5-8575-6D57EB08DC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,13 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +376,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -397,12 +406,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>26.317709000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-80.151359999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>43.169341199999998</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-89.263333099999997</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -410,5 +427,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>